--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kessman\github\Unreal\Agile-3_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Desktop\CS1C\Agile\Agile_3\Agile-3_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C0D0D8-AECD-493F-A6A6-67D197B7A962}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Agile Product Backlog" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>USER STORY ID</t>
   </si>
@@ -101,16 +100,64 @@
     <t>Acceptance Criteria</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
     <t>Value added to Project (1-10)</t>
+  </si>
+  <si>
+    <t>Product Owner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The base line toon tank is created </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shield pick up feature </t>
+  </si>
+  <si>
+    <t xml:space="preserve">beat my high score, stats (ex: accuracy and score) </t>
+  </si>
+  <si>
+    <t>a scoring system</t>
+  </si>
+  <si>
+    <t>Additional Enemy Tank Type (ex: boss)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all teams start with a compleded basline project </t>
+  </si>
+  <si>
+    <t>the tank gets to be momentarily shielded against incoming missiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add variety to the game </t>
+  </si>
+  <si>
+    <t>must have</t>
+  </si>
+  <si>
+    <t>nice to have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">should have </t>
+  </si>
+  <si>
+    <t>should have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Playable demo </t>
+  </si>
+  <si>
+    <t>tank recieves instant shield that lasts 3 rocket hits or lasts based on a different temporary measure</t>
+  </si>
+  <si>
+    <t>score result displayed</t>
+  </si>
+  <si>
+    <t>any additional enemy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -326,7 +373,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{E39CC1AE-E450-4213-AE3F-E7141941C366}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -671,37 +718,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="3" max="3" width="24.125" customWidth="1"/>
-    <col min="4" max="5" width="48.875" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.8984375" customWidth="1"/>
+    <col min="3" max="3" width="24.09765625" customWidth="1"/>
+    <col min="4" max="5" width="48.8984375" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" customWidth="1"/>
-    <col min="8" max="8" width="20.875" customWidth="1"/>
+    <col min="7" max="7" width="15.09765625" customWidth="1"/>
+    <col min="8" max="8" width="20.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -715,7 +762,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>4</v>
@@ -729,19 +776,27 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
+      <c r="C3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="F3" s="17">
         <v>4</v>
       </c>
-      <c r="G3" s="17"/>
+      <c r="G3" s="17" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" s="17" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -749,19 +804,27 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="9">
         <v>2</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
+      <c r="C4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="F4" s="17">
         <v>7</v>
       </c>
-      <c r="G4" s="17"/>
+      <c r="G4" s="17" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" s="17" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -769,19 +832,27 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
+      <c r="C5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="F5" s="17">
         <v>5</v>
       </c>
-      <c r="G5" s="17"/>
+      <c r="G5" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="H5" s="17" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -789,19 +860,27 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="9">
         <v>4</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
+      <c r="C6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="F6" s="17">
         <v>4</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="H6" s="17" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -809,27 +888,23 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="9">
         <v>5</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
       <c r="E7" s="12"/>
-      <c r="F7" s="17">
-        <v>10</v>
-      </c>
+      <c r="F7" s="17"/>
       <c r="G7" s="17"/>
-      <c r="H7" s="17" t="s">
-        <v>7</v>
-      </c>
+      <c r="H7" s="17"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
@@ -843,7 +918,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
       <c r="D9" s="11"/>
@@ -857,7 +932,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
       <c r="D10" s="11"/>
@@ -871,7 +946,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
       <c r="D11" s="11"/>
@@ -885,7 +960,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
       <c r="D12" s="11"/>
@@ -899,7 +974,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
       <c r="D13" s="11"/>
@@ -913,7 +988,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
@@ -927,7 +1002,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
       <c r="D15" s="11"/>
@@ -941,7 +1016,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
@@ -955,7 +1030,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
@@ -969,7 +1044,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
@@ -983,7 +1058,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
@@ -997,7 +1072,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
       <c r="D20" s="11"/>
@@ -1011,7 +1086,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="2:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="13"/>
       <c r="C21" s="14"/>
       <c r="D21" s="15"/>
@@ -1025,7 +1100,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1039,7 +1114,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1053,7 +1128,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1067,7 +1142,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1081,7 +1156,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1095,7 +1170,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1109,7 +1184,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1123,7 +1198,7 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1137,7 +1212,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1151,7 +1226,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1165,7 +1240,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1179,7 +1254,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1193,7 +1268,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1207,7 +1282,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1221,7 +1296,7 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1235,7 +1310,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1249,7 +1324,7 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1263,7 +1338,7 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1277,7 +1352,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1291,7 +1366,7 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1305,7 +1380,7 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1319,7 +1394,7 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1333,7 +1408,7 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1347,7 +1422,7 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1361,7 +1436,7 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1375,7 +1450,7 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1389,7 +1464,7 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1403,7 +1478,7 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1417,7 +1492,7 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1431,7 +1506,7 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1445,7 +1520,7 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1459,7 +1534,7 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1473,7 +1548,7 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1487,7 +1562,7 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1501,7 +1576,7 @@
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1515,7 +1590,7 @@
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1529,7 +1604,7 @@
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1543,7 +1618,7 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1557,7 +1632,7 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1571,7 +1646,7 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1585,7 +1660,7 @@
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1599,7 +1674,7 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1613,7 +1688,7 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1627,7 +1702,7 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
     </row>
-    <row r="65" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>

--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Desktop\CS1C\Agile\Agile_3\Agile-3_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kessman\github\Unreal\Agile-3_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0A36DD-8990-4C91-BA74-4F6FC3F9B66B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agile Product Backlog" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>USER STORY ID</t>
   </si>
@@ -100,65 +101,53 @@
     <t>Acceptance Criteria</t>
   </si>
   <si>
+    <t>??</t>
+  </si>
+  <si>
     <t>Value added to Project (1-10)</t>
   </si>
   <si>
     <t>Product Owner</t>
   </si>
   <si>
-    <t xml:space="preserve">The base line toon tank is created </t>
-  </si>
-  <si>
-    <t xml:space="preserve">shield pick up feature </t>
-  </si>
-  <si>
-    <t xml:space="preserve">beat my high score, stats (ex: accuracy and score) </t>
-  </si>
-  <si>
-    <t>a scoring system</t>
-  </si>
-  <si>
-    <t>Additional Enemy Tank Type (ex: boss)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all teams start with a compleded basline project </t>
-  </si>
-  <si>
-    <t>the tank gets to be momentarily shielded against incoming missiles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">add variety to the game </t>
-  </si>
-  <si>
-    <t>must have</t>
+    <t>The base line ToonTank project completed</t>
+  </si>
+  <si>
+    <t>Shield pickup feature</t>
+  </si>
+  <si>
+    <t>A scoring system</t>
+  </si>
+  <si>
+    <t>Additional enemy tank type (i.e. "Boss")</t>
+  </si>
+  <si>
+    <t>All of the teams start with a completed baseline prioject</t>
+  </si>
+  <si>
+    <t>The tank gets a momentary shield against incoming missiles</t>
+  </si>
+  <si>
+    <t>Beat my high score stats (i.e. score, accuracy %, etc.)</t>
+  </si>
+  <si>
+    <t>Add variety to the game</t>
+  </si>
+  <si>
+    <t>MUST HAVE</t>
   </si>
   <si>
     <t>nice to have</t>
   </si>
   <si>
-    <t xml:space="preserve">should have </t>
-  </si>
-  <si>
-    <t>should have</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Playable demo </t>
-  </si>
-  <si>
-    <t>tank recieves instant shield that lasts 3 rocket hits or lasts based on a different temporary measure</t>
-  </si>
-  <si>
-    <t>score result displayed</t>
-  </si>
-  <si>
-    <t>any additional enemy</t>
+    <t>SHOULD HAVE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -218,6 +207,26 @@
       <color theme="0"/>
       <name val="Century Gothic"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -313,7 +322,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -370,10 +379,19 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{E39CC1AE-E450-4213-AE3F-E7141941C366}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -718,37 +736,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.8984375" customWidth="1"/>
-    <col min="3" max="3" width="24.09765625" customWidth="1"/>
-    <col min="4" max="5" width="48.8984375" customWidth="1"/>
+    <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="24.125" customWidth="1"/>
+    <col min="4" max="5" width="48.875" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.09765625" customWidth="1"/>
-    <col min="8" max="8" width="20.8984375" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
+    <col min="8" max="8" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -762,7 +780,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>4</v>
@@ -776,27 +794,27 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9">
         <v>1</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="17">
-        <v>4</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -804,15 +822,15 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9">
         <v>2</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>15</v>
@@ -821,10 +839,10 @@
         <v>7</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -832,27 +850,27 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
         <v>3</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>11</v>
+      <c r="E5" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="F5" s="17">
         <v>5</v>
       </c>
-      <c r="G5" s="17" t="s">
-        <v>19</v>
+      <c r="G5" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -860,27 +878,27 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9">
         <v>4</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" s="17">
         <v>4</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="22" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -888,10 +906,8 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="9">
-        <v>5</v>
-      </c>
+    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
       <c r="E7" s="12"/>
@@ -904,7 +920,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
@@ -918,7 +934,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
       <c r="D9" s="11"/>
@@ -932,7 +948,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
       <c r="D10" s="11"/>
@@ -946,7 +962,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
       <c r="D11" s="11"/>
@@ -960,7 +976,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
       <c r="D12" s="11"/>
@@ -974,7 +990,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
       <c r="D13" s="11"/>
@@ -988,7 +1004,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
@@ -1002,7 +1018,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
       <c r="D15" s="11"/>
@@ -1016,7 +1032,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
@@ -1030,7 +1046,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
@@ -1044,7 +1060,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
@@ -1058,7 +1074,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
@@ -1072,7 +1088,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
       <c r="D20" s="11"/>
@@ -1086,7 +1102,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="2:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="13"/>
       <c r="C21" s="14"/>
       <c r="D21" s="15"/>
@@ -1100,7 +1116,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="2:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1114,7 +1130,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1128,7 +1144,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1142,7 +1158,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1156,7 +1172,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1170,7 +1186,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1184,7 +1200,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1198,7 +1214,7 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1212,7 +1228,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1226,7 +1242,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1240,7 +1256,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1254,7 +1270,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1268,7 +1284,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1282,7 +1298,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1296,7 +1312,7 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1310,7 +1326,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1324,7 +1340,7 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1338,7 +1354,7 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1352,7 +1368,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1366,7 +1382,7 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1380,7 +1396,7 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1394,7 +1410,7 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1408,7 +1424,7 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1422,7 +1438,7 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1436,7 +1452,7 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1450,7 +1466,7 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1464,7 +1480,7 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1478,7 +1494,7 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1492,7 +1508,7 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1506,7 +1522,7 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1520,7 +1536,7 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1534,7 +1550,7 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1548,7 +1564,7 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1562,7 +1578,7 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1576,7 +1592,7 @@
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1590,7 +1606,7 @@
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1604,7 +1620,7 @@
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1618,7 +1634,7 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1632,7 +1648,7 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1646,7 +1662,7 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1660,7 +1676,7 @@
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1674,7 +1690,7 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1688,7 +1704,7 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1702,7 +1718,7 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
     </row>
-    <row r="65" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -1714,7 +1730,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0" footer="0"/>
-  <pageSetup scale="91" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="91" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kessman\github\Unreal\Agile-3_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Desktop\CS1C\Agile\Agile_3\Agile-3_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0A36DD-8990-4C91-BA74-4F6FC3F9B66B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Agile Product Backlog" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>USER STORY ID</t>
   </si>
@@ -101,53 +100,65 @@
     <t>Acceptance Criteria</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
     <t>Value added to Project (1-10)</t>
   </si>
   <si>
     <t>Product Owner</t>
   </si>
   <si>
-    <t>The base line ToonTank project completed</t>
-  </si>
-  <si>
-    <t>Shield pickup feature</t>
-  </si>
-  <si>
-    <t>A scoring system</t>
-  </si>
-  <si>
-    <t>Additional enemy tank type (i.e. "Boss")</t>
-  </si>
-  <si>
-    <t>All of the teams start with a completed baseline prioject</t>
-  </si>
-  <si>
-    <t>The tank gets a momentary shield against incoming missiles</t>
-  </si>
-  <si>
-    <t>Beat my high score stats (i.e. score, accuracy %, etc.)</t>
-  </si>
-  <si>
-    <t>Add variety to the game</t>
-  </si>
-  <si>
-    <t>MUST HAVE</t>
+    <t xml:space="preserve">The base line toon tank is created </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shield pick up feature </t>
+  </si>
+  <si>
+    <t xml:space="preserve">beat my high score, stats (ex: accuracy and score) </t>
+  </si>
+  <si>
+    <t>a scoring system</t>
+  </si>
+  <si>
+    <t>Additional Enemy Tank Type (ex: boss)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all teams start with a compleded basline project </t>
+  </si>
+  <si>
+    <t>the tank gets to be momentarily shielded against incoming missiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add variety to the game </t>
+  </si>
+  <si>
+    <t>must have</t>
   </si>
   <si>
     <t>nice to have</t>
   </si>
   <si>
-    <t>SHOULD HAVE</t>
+    <t xml:space="preserve">should have </t>
+  </si>
+  <si>
+    <t>should have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Playable demo </t>
+  </si>
+  <si>
+    <t>tank recieves instant shield that lasts 3 rocket hits or lasts based on a different temporary measure</t>
+  </si>
+  <si>
+    <t>score result displayed</t>
+  </si>
+  <si>
+    <t>any additional enemy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -207,26 +218,6 @@
       <color theme="0"/>
       <name val="Century Gothic"/>
       <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -322,7 +313,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -379,19 +370,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{E39CC1AE-E450-4213-AE3F-E7141941C366}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -736,37 +718,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="3" max="3" width="24.125" customWidth="1"/>
-    <col min="4" max="5" width="48.875" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.8984375" customWidth="1"/>
+    <col min="3" max="3" width="24.09765625" customWidth="1"/>
+    <col min="4" max="5" width="48.8984375" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" customWidth="1"/>
-    <col min="8" max="8" width="20.875" customWidth="1"/>
+    <col min="7" max="7" width="15.09765625" customWidth="1"/>
+    <col min="8" max="8" width="20.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -780,7 +762,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>4</v>
@@ -794,27 +776,27 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B3" s="9">
         <v>1</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>10</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="17">
-        <v>10</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>18</v>
+        <v>4</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -822,15 +804,15 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="9">
         <v>2</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>15</v>
@@ -839,10 +821,10 @@
         <v>7</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -850,27 +832,27 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="9">
         <v>3</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>16</v>
+      <c r="E5" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="F5" s="17">
         <v>5</v>
       </c>
-      <c r="G5" s="21" t="s">
-        <v>20</v>
+      <c r="G5" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -878,27 +860,27 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="9">
         <v>4</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="17">
         <v>4</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="11" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -906,8 +888,10 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
+    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="9">
+        <v>5</v>
+      </c>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
       <c r="E7" s="12"/>
@@ -920,7 +904,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
@@ -934,7 +918,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
       <c r="D9" s="11"/>
@@ -948,7 +932,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
       <c r="D10" s="11"/>
@@ -962,7 +946,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
       <c r="D11" s="11"/>
@@ -976,7 +960,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
       <c r="D12" s="11"/>
@@ -990,7 +974,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
       <c r="D13" s="11"/>
@@ -1004,7 +988,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
@@ -1018,7 +1002,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
       <c r="D15" s="11"/>
@@ -1032,7 +1016,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
@@ -1046,7 +1030,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
@@ -1060,7 +1044,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
@@ -1074,7 +1058,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
@@ -1088,7 +1072,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
       <c r="D20" s="11"/>
@@ -1102,7 +1086,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="2:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="13"/>
       <c r="C21" s="14"/>
       <c r="D21" s="15"/>
@@ -1116,7 +1100,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1130,7 +1114,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1144,7 +1128,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1158,7 +1142,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1172,7 +1156,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1186,7 +1170,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1200,7 +1184,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1214,7 +1198,7 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1228,7 +1212,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1242,7 +1226,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1256,7 +1240,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1270,7 +1254,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1284,7 +1268,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1298,7 +1282,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1312,7 +1296,7 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1326,7 +1310,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1340,7 +1324,7 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1354,7 +1338,7 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1368,7 +1352,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1382,7 +1366,7 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1396,7 +1380,7 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1410,7 +1394,7 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1424,7 +1408,7 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1438,7 +1422,7 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1452,7 +1436,7 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1466,7 +1450,7 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1480,7 +1464,7 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1494,7 +1478,7 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1508,7 +1492,7 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1522,7 +1506,7 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1536,7 +1520,7 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1550,7 +1534,7 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1564,7 +1548,7 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1578,7 +1562,7 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1592,7 +1576,7 @@
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1606,7 +1590,7 @@
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1620,7 +1604,7 @@
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1634,7 +1618,7 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1648,7 +1632,7 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1662,7 +1646,7 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1676,7 +1660,7 @@
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1690,7 +1674,7 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1704,7 +1688,7 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1718,7 +1702,7 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
     </row>
-    <row r="65" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -1730,7 +1714,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0" footer="0"/>
-  <pageSetup scale="91" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="91" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
